--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_0_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_0_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.63000000000057</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5.584623767873609e-07</v>
+        <v>1.984045309155746e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>3.215643102453503e-06</v>
+        <v>4.446137295974263e-06</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.648100158504973</v>
+        <v>5.767194287030375</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.112623203178712, 8.183577113831234]</t>
+          <t>[3.369417638768116, 8.164970935292633]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.578066980112425e-05</v>
+        <v>3.301162605495733e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.266964665720295e-05</v>
+        <v>6.602325210991467e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.333368653775848</v>
+        <v>-1.345947603339772</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8365266363327715, -0.8302106712189241]</t>
+          <t>[-1.8365266363327732, -0.8553685703467702]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>3.270519293163687e-07</v>
+        <v>1.289861939479664e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>3.270519293163687e-07</v>
+        <v>1.289861939479664e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>10.32588195899094</v>
+        <v>10.30005448423578</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[8.898490353423899, 11.753273564557983]</t>
+          <t>[8.890838667507182, 11.70927030096437]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.438998998999118</v>
+        <v>5.531011011011142</v>
       </c>
       <c r="X2" t="n">
-        <v>3.38654654654662</v>
+        <v>3.515035035035116</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.491451451451615</v>
+        <v>7.546986986987168</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.14000000000033</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.458024052076624e-07</v>
+        <v>3.056597588368959e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>3.215643102453503e-06</v>
+        <v>1.799523062150863e-05</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.411878391269214</v>
+        <v>5.813530009289712</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.4825034071220338, 9.341253375416395]</t>
+          <t>[2.7527402090029014, 8.874319809576523]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.266964665720295e-05</v>
+        <v>0.0002236703294962172</v>
       </c>
       <c r="N3" t="n">
-        <v>2.266964665720295e-05</v>
+        <v>0.0002236703294962172</v>
       </c>
       <c r="O3" t="n">
-        <v>2.572395185822273</v>
+        <v>2.119553001521041</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.081816152829272, 3.062974218815274]</t>
+          <t>[1.5912371198362703, 2.6478688832058115]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.23945339839338e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.247890679678676e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>10.31325018068967</v>
+        <v>10.64006568984861</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.73784289764847, 11.88865746373088]</t>
+          <t>[9.070342437503236, 12.209788942193992]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.25685685685705</v>
+        <v>15.89727727727749</v>
       </c>
       <c r="X3" t="n">
-        <v>12.37205205205222</v>
+        <v>13.88010010010028</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.14166166166189</v>
+        <v>17.91445445445469</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_0_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_0_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.8200000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.984045309155746e-07</v>
+        <v>2.194424179813304e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>4.446137295974263e-06</v>
+        <v>1.241339008502561e-05</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.767194287030375</v>
+        <v>5.509311751115211</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.369417638768116, 8.164970935292633]</t>
+          <t>[3.137921160643077, 7.880702341587345]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.301162605495733e-06</v>
+        <v>6.879081644983742e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>6.602325210991467e-06</v>
+        <v>1.375816328996748e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.345947603339772</v>
+        <v>-1.496894998106848</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8365266363327732, -0.8553685703467702]</t>
+          <t>[-2.0377898293555408, -0.9560001668581553]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.289861939479664e-07</v>
+        <v>1.013472308297736e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.289861939479664e-07</v>
+        <v>1.013472308297736e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>10.30005448423578</v>
+        <v>10.30223786617947</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[8.890838667507182, 11.70927030096437]</t>
+          <t>[8.8348099137322, 11.769665818626736]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.531011011011142</v>
+        <v>6.117957957958094</v>
       </c>
       <c r="X2" t="n">
-        <v>3.515035035035116</v>
+        <v>3.907267267267355</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.546986986987168</v>
+        <v>8.328648648648834</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.99000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.056597588368959e-06</v>
+        <v>9.070632565055803e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>1.799523062150863e-05</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.241339008502561e-05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1130150683336597</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.813530009289712</v>
+        <v>5.980952745457254</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.7527402090029014, 8.874319809576523]</t>
+          <t>[3.1767187954762743, 8.785186695438233]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0002236703294962172</v>
+        <v>3.60129370065021e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002236703294962172</v>
+        <v>3.60129370065021e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>2.119553001521041</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.5912371198362703, 2.6478688832058115]</t>
+          <t>[1.4277107755052718, 2.4843425388748113]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>6.23945339839338e-14</v>
+        <v>3.114841717888339e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.247890679678676e-13</v>
+        <v>6.229683435776678e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>10.64006568984861</v>
+        <v>10.1422231426267</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.070342437503236, 12.209788942193992]</t>
+          <t>[8.60388221746761, 11.680564067785799]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.89727727727749</v>
+        <v>16.45965965965986</v>
       </c>
       <c r="X3" t="n">
-        <v>13.88010010010028</v>
+        <v>14.45005005005023</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.91445445445469</v>
+        <v>18.4692692692695</v>
       </c>
     </row>
   </sheetData>
